--- a/0_1_Output_Data/5_ifoCAST_error_series_matched/ifoCAst_errors_filtered_first.xlsx
+++ b/0_1_Output_Data/5_ifoCAST_error_series_matched/ifoCAst_errors_filtered_first.xlsx
@@ -750,6 +750,9 @@
       <c r="C22">
         <v>-0.07958040477500478</v>
       </c>
+      <c r="D22">
+        <v>0.7115302101128926</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
@@ -757,6 +760,9 @@
       </c>
       <c r="B23">
         <v>0.1373663892249952</v>
+      </c>
+      <c r="C23">
+        <v>0.3054124296933831</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/5_ifoCAST_error_series_matched/ifoCAst_errors_filtered_first.xlsx
+++ b/0_1_Output_Data/5_ifoCAST_error_series_matched/ifoCAst_errors_filtered_first.xlsx
@@ -28,7 +28,7 @@
     <t>2020-03-19_diff</t>
   </si>
   <si>
-    <t>2020-07-01_diff</t>
+    <t>2020-06-29_diff</t>
   </si>
   <si>
     <t>2020-09-22_diff</t>
@@ -479,13 +479,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>7.751411917751999</v>
+        <v>0.2822615868947058</v>
       </c>
       <c r="C3">
-        <v>-15.93208513138547</v>
+        <v>2.239176668751999</v>
       </c>
       <c r="D3">
-        <v>-2.14540653240632</v>
+        <v>-10.28507807938547</v>
       </c>
     </row>
     <row r="4" spans="1:4">

--- a/0_1_Output_Data/5_ifoCAST_error_series_matched/ifoCAst_errors_filtered_first.xlsx
+++ b/0_1_Output_Data/5_ifoCAST_error_series_matched/ifoCAst_errors_filtered_first.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Qminus1</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>2025-06-12_diff</t>
+  </si>
+  <si>
+    <t>2025-09-04_diff</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -751,7 +754,7 @@
         <v>-0.07958040477500478</v>
       </c>
       <c r="D22">
-        <v>0.7115302101128926</v>
+        <v>0.7115302104241067</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -762,7 +765,15 @@
         <v>0.1373663892249952</v>
       </c>
       <c r="C23">
-        <v>0.3054124296933831</v>
+        <v>0.3054124294241067</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>0.05603945542410671</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/5_ifoCAST_error_series_matched/ifoCAst_errors_filtered_first.xlsx
+++ b/0_1_Output_Data/5_ifoCAST_error_series_matched/ifoCAst_errors_filtered_first.xlsx
@@ -767,6 +767,9 @@
       <c r="C23">
         <v>0.3054124294241067</v>
       </c>
+      <c r="D23">
+        <v>0.597740902</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
@@ -774,6 +777,9 @@
       </c>
       <c r="B24">
         <v>0.05603945542410671</v>
+      </c>
+      <c r="C24">
+        <v>0.042359665</v>
       </c>
     </row>
   </sheetData>
